--- a/GATEWAY/A1#111#GITRSOFTWAREXX/MedicalWin/FSE/2.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111#GITRSOFTWAREXX/MedicalWin/FSE/2.0/report-checklist.xlsx
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="199">
   <si>
     <t xml:space="preserve">COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -789,6 +789,9 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">Campo/sezione non gestito/a in modo strutturato dall’applicativo</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_LAB_TRASF_CT2</t>
   </si>
   <si>
@@ -839,9 +842,6 @@
   </si>
   <si>
     <t xml:space="preserve">Razionale di Applicabilità</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Campo/sezione non gestito/a in modo strutturato dall’applicativo</t>
   </si>
   <si>
     <t xml:space="preserve">Campo obbligatorio</t>
@@ -1601,7 +1601,7 @@
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.578125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.59765625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="130.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="2" style="0" width="8.82"/>
@@ -1688,7 +1688,7 @@
       <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.578125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.59765625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="194.18"/>
@@ -2762,14 +2762,14 @@
   <dimension ref="A1:W1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
-      <selection pane="bottomRight" activeCell="A20" activeCellId="0" sqref="A20"/>
+      <selection pane="bottomLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
+      <selection pane="bottomRight" activeCell="A23" activeCellId="0" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.578125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.59765625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="46.83"/>
@@ -3897,7 +3897,9 @@
       <c r="J23" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="K23" s="32"/>
+      <c r="K23" s="32" t="s">
+        <v>142</v>
+      </c>
       <c r="L23" s="32"/>
       <c r="M23" s="32"/>
       <c r="N23" s="32"/>
@@ -3924,10 +3926,10 @@
         <v>48</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E24" s="29" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F24" s="31"/>
       <c r="G24" s="31"/>
@@ -3936,7 +3938,9 @@
       <c r="J24" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="K24" s="32"/>
+      <c r="K24" s="32" t="s">
+        <v>142</v>
+      </c>
       <c r="L24" s="32"/>
       <c r="M24" s="32"/>
       <c r="N24" s="32"/>
@@ -3963,22 +3967,22 @@
         <v>48</v>
       </c>
       <c r="D25" s="28" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E25" s="29" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F25" s="31" t="n">
         <v>45806</v>
       </c>
       <c r="G25" s="31" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H25" s="31" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I25" s="37" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="J25" s="32" t="s">
         <v>54</v>
@@ -4012,22 +4016,22 @@
         <v>48</v>
       </c>
       <c r="D26" s="28" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E26" s="29" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F26" s="40" t="n">
         <v>45805</v>
       </c>
       <c r="G26" s="28" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H26" s="28" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I26" s="37" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J26" s="32" t="s">
         <v>54</v>
@@ -4041,7 +4045,7 @@
         <v>54</v>
       </c>
       <c r="O26" s="32" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="P26" s="32" t="s">
         <v>62</v>
@@ -8358,16 +8362,16 @@
       <selection pane="topLeft" activeCell="I15" activeCellId="0" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8424,7 +8428,7 @@
       <selection pane="bottomLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.578125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.59765625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.81"/>
@@ -9572,7 +9576,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.578125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.59765625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.17"/>

--- a/GATEWAY/A1#111#GITRSOFTWAREXX/MedicalWin/FSE/2.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111#GITRSOFTWAREXX/MedicalWin/FSE/2.0/report-checklist.xlsx
@@ -42,7 +42,6 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="0"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">======
 ID#AAAAzAuRGEo
@@ -56,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="199">
   <si>
     <t xml:space="preserve">COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -114,7 +113,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Obiettivo</t>
     </r>
@@ -124,7 +122,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">: In questo foglio si riportano i pre requisiti/assunzioni necessari all'accreditamento del software dei </t>
     </r>
@@ -135,7 +132,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">client</t>
     </r>
@@ -145,7 +141,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> che ne hanno fatto richiesta, e utili alla compilazione della presente Checklist.</t>
     </r>
@@ -173,7 +168,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">I file CDA2 necessari all'esecuzione dei test di accreditamento devono essere costruiti secondo le specifiche nazionali https://www.hl7.it/realm-italiano/ e coerentemente ai casi di test descritti.</t>
     </r>
@@ -183,7 +177,6 @@
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -303,6 +296,9 @@
   </si>
   <si>
     <t xml:space="preserve">SI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PASS</t>
   </si>
   <si>
     <t xml:space="preserve">OK</t>
@@ -319,7 +315,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Precondizioni:
 </t>
@@ -330,7 +325,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Il fornitore utilizza un token jwt mancante di campi obbligatori, quindi non valido.
 </t>
@@ -343,10 +337,8 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">
-Descrizione di Business del caso di test: 
+      <t xml:space="preserve">Descrizione di Business del caso di test: 
 </t>
     </r>
     <r>
@@ -355,11 +347,45 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" con un token jwt non valido a causa della mancanza di uno o più campi obbligatori al fine di testare la gestione dell'errore sul token (status code 403), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-</t>
+Al fine di rendere non valido il token è necessario non valorizzare nel JWT il campo "purpose_of_use".</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-05-29T2025 12:25:39Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67e45a8378fc48de5343cd46a4bac94c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNKNOWN_WORKFLOW_ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STATUS: 403
+type: /msg/jwt-validation
+title: Campo token JWT non valido.
+dettagli: Il campo purpose_of_use non è valorizzato
+istance: /jwt-mandatory-field-missing
+warning: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Errore visualizzato dall’utente alla fine dell’elaborazione di trasmissione tramite un file di LOG. I file scartati a seguito di anomalie saranno riproposti nella coda di “pronti per la validazione”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ELEMENTO SIMULATO AI SOLI FINI DEL TEST.
+purpose_of_use viene sempre valorizzato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VALIDAZIONE_TOKEN_JWT_CAMPO_LAB_KO</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b val="true"/>
@@ -368,68 +394,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Al fine di rendere non valido il token è necessario non valorizzare nel JWT il campo "purpose_of_use".</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-05-29T2025 12:25:39Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67e45a8378fc48de5343cd46a4bac94c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNKNOWN_WORKFLOW_ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STATUS: 403
-type: /msg/jwt-validation
-title: Campo token JWT non valido.
-dettagli: Il campo purpose_of_use non è valorizzato
-istance: /jwt-mandatory-field-missing
-warning: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">NO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Errore visualizzato dall’utente alla fine dell’elaborazione di trasmissione tramite un file di LOG. I file scartati a seguito di anomalie saranno riproposti nella coda di “pronti per la validazione”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PASS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ELEMENTO SIMULATO AI SOLI FINI DEL TEST.
-purpose_of_use viene sempre valorizzato</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALIDAZIONE_TOKEN_JWT_CAMPO_LAB_KO</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <u val="single"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Precondizioni:
 </t>
@@ -440,7 +404,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Il fornitore utilizza un token jwt con dei campi valorizzati in maniera errata.
 </t>
@@ -453,10 +416,8 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">
-Descrizione di Business del caso di test: 
+      <t xml:space="preserve">Descrizione di Business del caso di test: 
 </t>
     </r>
     <r>
@@ -465,7 +426,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" con un token jwt avente dei campi valorizzati in maniera errata al fine di testare la gestione dell'errore sul token (status code 403), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 Al fine di rendere non valido il token è necessario valorizzare il campo "action_id" con la stringa "TEST" (valore non ammesso).</t>
@@ -615,34 +575,6 @@
   <si>
     <t xml:space="preserve">ELEMENTO SIMULATO AI SOLI FINI DEL TEST.
 Il campo Sesso ha valori predefiniti nel nostro gestionale, per cui non possono venire tradotti con valori non accettati dalle specifiche CDA2.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALIDAZIONE_CDA2_LAB_CT12_KO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-05-28T15:17:17Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03ee8db2d48567a318501502a169b08a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.190.4.4.5f97f9dab53d4a9bd5c461731b8b216e33021b0989ad3de1713b4b0b34a1af0d.0599dff9d4^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STATUS: 400
-type: /msg/vocabulary
-title: Errore vocabolario.
-dettagli: Almeno uno dei seguenti vocaboli non è censito: [CodeSystem: 2.16.840.1.113883.5.7 v2.1.0, Codes: Z]
-istance: /validation/error
-warning: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ELEMENTO SIMULATO AI SOLI FINI DEL TEST.
-Le priorità hanno valori predefiniti nel nostro gestionale, per cui non possono venire tradotti con valori non accettati dalle specifiche CDA2.</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_LAB_CT13_KO</t>
@@ -841,6 +773,35 @@
 warning: </t>
   </si>
   <si>
+    <t xml:space="preserve">VALIDAZIONE_CDA2_LAB_CT19_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 19" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-06-10T15:09:51Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cf2bb94e178bc6ff491f11c2295b404b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.190.4.4.f49f2a78c2c14dc58f532e6ceed2cefe39446711056e8421725d9f3fff52a215.d7273c5f31^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STATUS: 400
+type: /msg/vocabulary
+title: Errore vocabolario.
+dettagli: Almeno uno dei seguenti vocaboli non è censito: [CodeSystem: 2.16.840.1.113883.5.7 v2.1.0, Codes: Z]
+istance: /validation/error
+warning: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ELEMENTO SIMULATO AI SOLI FINI DEL TEST.
+I valori e i codici delle priorità delle ricette sono organizzati nella procedura.
+Al massimo, se non valorizzato, viene segnalato errore in fase di generazione referto FSE.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Razionale di Applicabilità</t>
   </si>
   <si>
@@ -874,7 +835,7 @@
     <t xml:space="preserve">Versione:</t>
   </si>
   <si>
-    <t xml:space="preserve">8.2.5</t>
+    <t xml:space="preserve">8.2.6</t>
   </si>
   <si>
     <t xml:space="preserve">Validazione</t>
@@ -883,7 +844,7 @@
     <t xml:space="preserve">4, 452</t>
   </si>
   <si>
-    <t xml:space="preserve">28,36,44,53,55,56,57,58,59,60,61,62, 466</t>
+    <t xml:space="preserve">28,36,44,53,55,56,57,59,60,61,62, 466, 473</t>
   </si>
   <si>
     <t xml:space="preserve">LDO</t>
@@ -901,7 +862,7 @@
     <t xml:space="preserve">471, 472</t>
   </si>
   <si>
-    <t xml:space="preserve">31,39,47,76,78,79,80,81,82,83,84,85,86,87,88,89,90,91,92,93, 462</t>
+    <t xml:space="preserve">31,39,47,76,78,79,80,81,83,84,85,86,87,88,89,90,91,92,93, 462, 474</t>
   </si>
   <si>
     <t xml:space="preserve">CERT_VAC</t>
@@ -937,7 +898,7 @@
     <t xml:space="preserve">448, 449</t>
   </si>
   <si>
-    <t xml:space="preserve">32,40,48,152,154,155,156,157,158,159,160,161,162,163,164,165,166,167,168,169, 461, 468</t>
+    <t xml:space="preserve">32,40,48,152,154,155,156,157,159,160,161,162,163,164,165,166,167,168,169, 461, 468, 475</t>
   </si>
   <si>
     <t xml:space="preserve">PSS</t>
@@ -980,13 +941,12 @@
     <numFmt numFmtId="166" formatCode="d/m/yyyy"/>
     <numFmt numFmtId="167" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1008,7 +968,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -1016,13 +975,11 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -1030,7 +987,6 @@
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <i val="true"/>
@@ -1038,14 +994,12 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -1053,18 +1007,22 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <u val="single"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1078,7 +1036,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1261,7 +1218,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="55">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1414,19 +1371,39 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1597,11 +1574,11 @@
   </sheetPr>
   <dimension ref="A1:A13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.59765625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.47265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="130.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="2" style="0" width="8.82"/>
@@ -1682,13 +1659,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B996"/>
+  <dimension ref="A1:B217"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.59765625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.47265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="194.18"/>
@@ -2761,21 +2738,21 @@
   </sheetPr>
   <dimension ref="A1:W1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="9" topLeftCell="B25" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
-      <selection pane="bottomRight" activeCell="A23" activeCellId="0" sqref="A23"/>
+      <selection pane="bottomLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
+      <selection pane="bottomRight" activeCell="A26" activeCellId="0" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.59765625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.47265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="46.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="46.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="63.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="104.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="63.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="104.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="6" style="0" width="33.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="27.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="11" style="0" width="36.46"/>
@@ -2783,7 +2760,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="33.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="36.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="22" style="0" width="31.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="30.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="30.9"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2916,7 +2893,7 @@
       <c r="V5" s="2"/>
       <c r="W5" s="14"/>
     </row>
-    <row r="6" customFormat="false" ht="2.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="19"/>
       <c r="B6" s="19"/>
       <c r="C6" s="20"/>
@@ -2939,7 +2916,7 @@
       <c r="V6" s="2"/>
       <c r="W6" s="14"/>
     </row>
-    <row r="7" customFormat="false" ht="2.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="20"/>
       <c r="B7" s="20"/>
       <c r="C7" s="20"/>
@@ -2962,7 +2939,7 @@
       <c r="V7" s="2"/>
       <c r="W7" s="14"/>
     </row>
-    <row r="8" customFormat="false" ht="2.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
@@ -2982,7 +2959,7 @@
       <c r="V8" s="2"/>
       <c r="W8" s="14"/>
     </row>
-    <row r="9" s="25" customFormat="true" ht="72.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" s="25" customFormat="true" ht="125.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="21" t="s">
         <v>24</v>
       </c>
@@ -3053,7 +3030,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="99.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="26" t="n">
         <v>4</v>
       </c>
@@ -3093,14 +3070,16 @@
       <c r="Q10" s="32"/>
       <c r="R10" s="32"/>
       <c r="S10" s="32"/>
-      <c r="T10" s="32"/>
+      <c r="T10" s="32" t="s">
+        <v>55</v>
+      </c>
       <c r="U10" s="33"/>
       <c r="V10" s="34"/>
       <c r="W10" s="32" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="99.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="28" t="n">
         <v>28</v>
       </c>
@@ -3111,22 +3090,22 @@
         <v>48</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E11" s="36" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F11" s="30" t="n">
         <v>45806</v>
       </c>
       <c r="G11" s="31" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H11" s="31" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I11" s="37" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J11" s="32" t="s">
         <v>54</v>
@@ -3140,10 +3119,10 @@
         <v>54</v>
       </c>
       <c r="O11" s="32" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P11" s="32" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Q11" s="32" t="s">
         <v>54</v>
@@ -3151,21 +3130,21 @@
       <c r="R11" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="S11" s="32" t="s">
-        <v>63</v>
+      <c r="S11" s="38" t="s">
+        <v>64</v>
       </c>
       <c r="T11" s="32" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="U11" s="33"/>
-      <c r="V11" s="34" t="s">
+      <c r="V11" s="39" t="s">
         <v>65</v>
       </c>
       <c r="W11" s="32" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="99.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="28" t="n">
         <v>36</v>
       </c>
@@ -3181,17 +3160,17 @@
       <c r="E12" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="F12" s="30" t="n">
+      <c r="F12" s="40" t="n">
         <v>45806</v>
       </c>
-      <c r="G12" s="31" t="s">
+      <c r="G12" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="H12" s="31" t="s">
+      <c r="H12" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="I12" s="37" t="s">
-        <v>60</v>
+      <c r="I12" s="42" t="s">
+        <v>61</v>
       </c>
       <c r="J12" s="32" t="s">
         <v>54</v>
@@ -3204,11 +3183,11 @@
       <c r="N12" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="O12" s="32" t="s">
+      <c r="O12" s="38" t="s">
         <v>71</v>
       </c>
       <c r="P12" s="32" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Q12" s="32" t="s">
         <v>54</v>
@@ -3216,21 +3195,21 @@
       <c r="R12" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="S12" s="32" t="s">
-        <v>63</v>
+      <c r="S12" s="38" t="s">
+        <v>64</v>
       </c>
       <c r="T12" s="32" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="U12" s="33"/>
-      <c r="V12" s="34" t="s">
+      <c r="V12" s="39" t="s">
         <v>72</v>
       </c>
       <c r="W12" s="32" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="99.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="28" t="n">
         <v>44</v>
       </c>
@@ -3246,7 +3225,7 @@
       <c r="E13" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="F13" s="31" t="n">
+      <c r="F13" s="41" t="n">
         <v>45805</v>
       </c>
       <c r="G13" s="31"/>
@@ -3263,11 +3242,11 @@
       <c r="N13" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="O13" s="32" t="s">
+      <c r="O13" s="38" t="s">
         <v>75</v>
       </c>
       <c r="P13" s="32" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Q13" s="32" t="s">
         <v>54</v>
@@ -3275,11 +3254,11 @@
       <c r="R13" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="S13" s="32" t="s">
+      <c r="S13" s="38" t="s">
         <v>76</v>
       </c>
       <c r="T13" s="32" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="U13" s="33" t="s">
         <v>54</v>
@@ -3289,7 +3268,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="125.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="99.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="28" t="n">
         <v>53</v>
       </c>
@@ -3305,16 +3284,16 @@
       <c r="E14" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="F14" s="31" t="n">
+      <c r="F14" s="41" t="n">
         <v>45805</v>
       </c>
-      <c r="G14" s="31" t="s">
+      <c r="G14" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="H14" s="31" t="s">
+      <c r="H14" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="I14" s="37" t="s">
+      <c r="I14" s="42" t="s">
         <v>81</v>
       </c>
       <c r="J14" s="32" t="s">
@@ -3328,33 +3307,33 @@
       <c r="N14" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="O14" s="32" t="s">
+      <c r="O14" s="38" t="s">
         <v>82</v>
       </c>
       <c r="P14" s="32" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Q14" s="32" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R14" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="S14" s="32" t="s">
-        <v>63</v>
+      <c r="S14" s="38" t="s">
+        <v>64</v>
       </c>
       <c r="T14" s="32" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="U14" s="33"/>
-      <c r="V14" s="34" t="s">
+      <c r="V14" s="39" t="s">
         <v>83</v>
       </c>
       <c r="W14" s="32" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="135.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="99.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="28" t="n">
         <v>55</v>
       </c>
@@ -3370,16 +3349,16 @@
       <c r="E15" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="F15" s="31" t="n">
+      <c r="F15" s="41" t="n">
         <v>45805</v>
       </c>
-      <c r="G15" s="31" t="s">
+      <c r="G15" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="H15" s="31" t="s">
+      <c r="H15" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="I15" s="37" t="s">
+      <c r="I15" s="42" t="s">
         <v>88</v>
       </c>
       <c r="J15" s="32" t="s">
@@ -3393,33 +3372,33 @@
       <c r="N15" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="O15" s="32" t="s">
+      <c r="O15" s="38" t="s">
         <v>89</v>
       </c>
       <c r="P15" s="32" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Q15" s="32" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R15" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="S15" s="32" t="s">
-        <v>63</v>
+      <c r="S15" s="38" t="s">
+        <v>64</v>
       </c>
       <c r="T15" s="32" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="U15" s="33"/>
-      <c r="V15" s="34" t="s">
+      <c r="V15" s="39" t="s">
         <v>90</v>
       </c>
       <c r="W15" s="32" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="135.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="99.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="28" t="n">
         <v>56</v>
       </c>
@@ -3435,16 +3414,16 @@
       <c r="E16" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="F16" s="31" t="n">
+      <c r="F16" s="41" t="n">
         <v>45805</v>
       </c>
-      <c r="G16" s="31" t="s">
+      <c r="G16" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="H16" s="31" t="s">
+      <c r="H16" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="I16" s="37" t="s">
+      <c r="I16" s="42" t="s">
         <v>95</v>
       </c>
       <c r="J16" s="32" t="s">
@@ -3458,33 +3437,33 @@
       <c r="N16" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="O16" s="32" t="s">
+      <c r="O16" s="38" t="s">
         <v>96</v>
       </c>
       <c r="P16" s="32" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Q16" s="32" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R16" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="S16" s="32" t="s">
-        <v>63</v>
+      <c r="S16" s="38" t="s">
+        <v>64</v>
       </c>
       <c r="T16" s="32" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="U16" s="33"/>
-      <c r="V16" s="34" t="s">
+      <c r="V16" s="39" t="s">
         <v>97</v>
       </c>
       <c r="W16" s="32" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="99.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="28" t="n">
         <v>57</v>
       </c>
@@ -3500,16 +3479,16 @@
       <c r="E17" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="F17" s="31" t="n">
+      <c r="F17" s="41" t="n">
         <v>45805</v>
       </c>
-      <c r="G17" s="31" t="s">
+      <c r="G17" s="41" t="s">
         <v>100</v>
       </c>
-      <c r="H17" s="31" t="s">
+      <c r="H17" s="41" t="s">
         <v>101</v>
       </c>
-      <c r="I17" s="37" t="s">
+      <c r="I17" s="42" t="s">
         <v>102</v>
       </c>
       <c r="J17" s="32" t="s">
@@ -3523,35 +3502,35 @@
       <c r="N17" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="O17" s="32" t="s">
+      <c r="O17" s="38" t="s">
         <v>103</v>
       </c>
       <c r="P17" s="32" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Q17" s="32" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R17" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="S17" s="32" t="s">
-        <v>63</v>
+      <c r="S17" s="38" t="s">
+        <v>64</v>
       </c>
       <c r="T17" s="32" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="U17" s="33"/>
-      <c r="V17" s="34" t="s">
+      <c r="V17" s="39" t="s">
         <v>104</v>
       </c>
       <c r="W17" s="32" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="91.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="99.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="28" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B18" s="28" t="s">
         <v>47</v>
@@ -3565,16 +3544,16 @@
       <c r="E18" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="F18" s="31" t="n">
+      <c r="F18" s="41" t="n">
         <v>45805</v>
       </c>
-      <c r="G18" s="31" t="s">
+      <c r="G18" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="H18" s="31" t="s">
+      <c r="H18" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="I18" s="37" t="s">
+      <c r="I18" s="42" t="s">
         <v>109</v>
       </c>
       <c r="J18" s="32" t="s">
@@ -3588,35 +3567,35 @@
       <c r="N18" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="O18" s="32" t="s">
+      <c r="O18" s="38" t="s">
         <v>110</v>
       </c>
       <c r="P18" s="32" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Q18" s="32" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R18" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="S18" s="32" t="s">
-        <v>63</v>
+      <c r="S18" s="38" t="s">
+        <v>64</v>
       </c>
       <c r="T18" s="32" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="U18" s="33"/>
-      <c r="V18" s="34" t="s">
+      <c r="V18" s="39" t="s">
         <v>111</v>
       </c>
       <c r="W18" s="32" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="135.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="99.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="28" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B19" s="28" t="s">
         <v>47</v>
@@ -3630,16 +3609,16 @@
       <c r="E19" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="F19" s="31" t="n">
+      <c r="F19" s="41" t="n">
         <v>45805</v>
       </c>
-      <c r="G19" s="31" t="s">
+      <c r="G19" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="H19" s="31" t="s">
+      <c r="H19" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="I19" s="37" t="s">
+      <c r="I19" s="42" t="s">
         <v>116</v>
       </c>
       <c r="J19" s="32" t="s">
@@ -3653,35 +3632,35 @@
       <c r="N19" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="O19" s="32" t="s">
+      <c r="O19" s="38" t="s">
         <v>117</v>
       </c>
       <c r="P19" s="32" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Q19" s="32" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R19" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="S19" s="32" t="s">
-        <v>63</v>
+      <c r="S19" s="38" t="s">
+        <v>64</v>
       </c>
       <c r="T19" s="32" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="U19" s="33"/>
-      <c r="V19" s="34" t="s">
+      <c r="V19" s="39" t="s">
         <v>118</v>
       </c>
       <c r="W19" s="32" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="244.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="99.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="28" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B20" s="28" t="s">
         <v>47</v>
@@ -3695,16 +3674,16 @@
       <c r="E20" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="F20" s="31" t="n">
+      <c r="F20" s="41" t="n">
         <v>45805</v>
       </c>
-      <c r="G20" s="31" t="s">
+      <c r="G20" s="41" t="s">
         <v>121</v>
       </c>
-      <c r="H20" s="31" t="s">
+      <c r="H20" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="I20" s="37" t="s">
+      <c r="I20" s="42" t="s">
         <v>123</v>
       </c>
       <c r="J20" s="32" t="s">
@@ -3718,35 +3697,35 @@
       <c r="N20" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="O20" s="32" t="s">
+      <c r="O20" s="38" t="s">
         <v>124</v>
       </c>
       <c r="P20" s="32" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Q20" s="32" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R20" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="S20" s="32" t="s">
-        <v>63</v>
+      <c r="S20" s="38" t="s">
+        <v>64</v>
       </c>
       <c r="T20" s="32" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="U20" s="33"/>
-      <c r="V20" s="34" t="s">
+      <c r="V20" s="43" t="s">
         <v>125</v>
       </c>
       <c r="W20" s="32" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="150.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="99.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="28" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B21" s="28" t="s">
         <v>47</v>
@@ -3760,16 +3739,16 @@
       <c r="E21" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="F21" s="31" t="n">
+      <c r="F21" s="41" t="n">
         <v>45805</v>
       </c>
-      <c r="G21" s="31" t="s">
+      <c r="G21" s="41" t="s">
         <v>128</v>
       </c>
-      <c r="H21" s="31" t="s">
+      <c r="H21" s="41" t="s">
         <v>129</v>
       </c>
-      <c r="I21" s="37" t="s">
+      <c r="I21" s="42" t="s">
         <v>130</v>
       </c>
       <c r="J21" s="32" t="s">
@@ -3783,35 +3762,35 @@
       <c r="N21" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="O21" s="32" t="s">
+      <c r="O21" s="38" t="s">
         <v>131</v>
       </c>
       <c r="P21" s="32" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Q21" s="32" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R21" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="S21" s="32" t="s">
-        <v>63</v>
+      <c r="S21" s="38" t="s">
+        <v>64</v>
       </c>
       <c r="T21" s="32" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="U21" s="33"/>
-      <c r="V21" s="38" t="s">
+      <c r="V21" s="43" t="s">
         <v>132</v>
       </c>
       <c r="W21" s="32" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="209.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="99.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="28" t="n">
-        <v>62</v>
+        <v>191</v>
       </c>
       <c r="B22" s="28" t="s">
         <v>47</v>
@@ -3822,61 +3801,37 @@
       <c r="D22" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="E22" s="39" t="s">
+      <c r="E22" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="F22" s="31" t="n">
-        <v>45805</v>
-      </c>
-      <c r="G22" s="31" t="s">
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="K22" s="32" t="s">
         <v>135</v>
       </c>
-      <c r="H22" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="I22" s="37" t="s">
-        <v>137</v>
-      </c>
-      <c r="J22" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="K22" s="32"/>
       <c r="L22" s="32"/>
-      <c r="M22" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="N22" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="O22" s="32" t="s">
-        <v>138</v>
-      </c>
-      <c r="P22" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q22" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="R22" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="S22" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="T22" s="32" t="s">
-        <v>64</v>
-      </c>
+      <c r="M22" s="32"/>
+      <c r="N22" s="32"/>
+      <c r="O22" s="32"/>
+      <c r="P22" s="32"/>
+      <c r="Q22" s="32"/>
+      <c r="R22" s="32"/>
+      <c r="S22" s="32"/>
+      <c r="T22" s="32"/>
       <c r="U22" s="33"/>
-      <c r="V22" s="38" t="s">
-        <v>139</v>
-      </c>
+      <c r="V22" s="34"/>
       <c r="W22" s="32" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="99.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="28" t="n">
-        <v>191</v>
+        <v>376</v>
       </c>
       <c r="B23" s="28" t="s">
         <v>47</v>
@@ -3885,20 +3840,20 @@
         <v>48</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E23" s="29" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F23" s="31"/>
       <c r="G23" s="31"/>
       <c r="H23" s="31"/>
       <c r="I23" s="37"/>
       <c r="J23" s="32" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K23" s="32" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="L23" s="32"/>
       <c r="M23" s="32"/>
@@ -3912,12 +3867,12 @@
       <c r="U23" s="33"/>
       <c r="V23" s="34"/>
       <c r="W23" s="32" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="99.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="28" t="n">
-        <v>376</v>
+        <v>452</v>
       </c>
       <c r="B24" s="28" t="s">
         <v>47</v>
@@ -3926,21 +3881,27 @@
         <v>48</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E24" s="29" t="s">
-        <v>144</v>
-      </c>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="37"/>
+        <v>139</v>
+      </c>
+      <c r="F24" s="41" t="n">
+        <v>45806</v>
+      </c>
+      <c r="G24" s="41" t="s">
+        <v>140</v>
+      </c>
+      <c r="H24" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="I24" s="42" t="s">
+        <v>142</v>
+      </c>
       <c r="J24" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="K24" s="32" t="s">
-        <v>142</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="K24" s="32"/>
       <c r="L24" s="32"/>
       <c r="M24" s="32"/>
       <c r="N24" s="32"/>
@@ -3949,16 +3910,18 @@
       <c r="Q24" s="32"/>
       <c r="R24" s="32"/>
       <c r="S24" s="32"/>
-      <c r="T24" s="32"/>
+      <c r="T24" s="32" t="s">
+        <v>55</v>
+      </c>
       <c r="U24" s="33"/>
       <c r="V24" s="34"/>
       <c r="W24" s="32" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="99.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="28" t="n">
-        <v>452</v>
+        <v>466</v>
       </c>
       <c r="B25" s="28" t="s">
         <v>47</v>
@@ -3967,47 +3930,61 @@
         <v>48</v>
       </c>
       <c r="D25" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="E25" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="F25" s="44" t="n">
+        <v>45805</v>
+      </c>
+      <c r="G25" s="45" t="s">
         <v>145</v>
       </c>
-      <c r="E25" s="29" t="s">
+      <c r="H25" s="45" t="s">
         <v>146</v>
       </c>
-      <c r="F25" s="31" t="n">
-        <v>45806</v>
-      </c>
-      <c r="G25" s="31" t="s">
+      <c r="I25" s="42" t="s">
         <v>147</v>
-      </c>
-      <c r="H25" s="31" t="s">
-        <v>148</v>
-      </c>
-      <c r="I25" s="37" t="s">
-        <v>149</v>
       </c>
       <c r="J25" s="32" t="s">
         <v>54</v>
       </c>
       <c r="K25" s="32"/>
-      <c r="L25" s="32"/>
-      <c r="M25" s="32"/>
-      <c r="N25" s="32"/>
-      <c r="O25" s="32"/>
-      <c r="P25" s="32"/>
-      <c r="Q25" s="32"/>
-      <c r="R25" s="32"/>
-      <c r="S25" s="32"/>
+      <c r="L25" s="28"/>
+      <c r="M25" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="N25" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="O25" s="38" t="s">
+        <v>148</v>
+      </c>
+      <c r="P25" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q25" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="R25" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="S25" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="T25" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="U25" s="33"/>
-      <c r="V25" s="34"/>
-      <c r="W25" s="32" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U25" s="28"/>
+      <c r="V25" s="28"/>
+      <c r="W25" s="28" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="99.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="28" t="n">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="B26" s="28" t="s">
         <v>47</v>
@@ -4015,29 +3992,29 @@
       <c r="C26" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="D26" s="28" t="s">
+      <c r="D26" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="E26" s="29" t="s">
         <v>150</v>
       </c>
-      <c r="E26" s="29" t="s">
+      <c r="F26" s="31" t="n">
+        <v>45818</v>
+      </c>
+      <c r="G26" s="45" t="s">
         <v>151</v>
       </c>
-      <c r="F26" s="40" t="n">
-        <v>45805</v>
-      </c>
-      <c r="G26" s="28" t="s">
+      <c r="H26" s="31" t="s">
         <v>152</v>
       </c>
-      <c r="H26" s="28" t="s">
+      <c r="I26" s="37" t="s">
         <v>153</v>
-      </c>
-      <c r="I26" s="37" t="s">
-        <v>154</v>
       </c>
       <c r="J26" s="32" t="s">
         <v>54</v>
       </c>
       <c r="K26" s="32"/>
-      <c r="L26" s="28"/>
+      <c r="L26" s="32"/>
       <c r="M26" s="32" t="s">
         <v>54</v>
       </c>
@@ -4045,26 +4022,28 @@
         <v>54</v>
       </c>
       <c r="O26" s="32" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="P26" s="32" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Q26" s="32" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R26" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="S26" s="32" t="s">
-        <v>63</v>
+      <c r="S26" s="38" t="s">
+        <v>64</v>
       </c>
       <c r="T26" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="U26" s="28"/>
-      <c r="V26" s="28"/>
-      <c r="W26" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="U26" s="33"/>
+      <c r="V26" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="W26" s="32" t="s">
         <v>66</v>
       </c>
     </row>
@@ -6829,64 +6808,13 @@
       <c r="W164" s="14"/>
     </row>
     <row r="165" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F165" s="11"/>
-      <c r="G165" s="11"/>
-      <c r="H165" s="11"/>
-      <c r="I165" s="11"/>
-      <c r="J165" s="12"/>
-      <c r="K165" s="12"/>
-      <c r="L165" s="12"/>
-      <c r="M165" s="12"/>
-      <c r="N165" s="12"/>
-      <c r="O165" s="12"/>
-      <c r="P165" s="12"/>
-      <c r="Q165" s="12"/>
-      <c r="R165" s="12"/>
-      <c r="S165" s="12"/>
-      <c r="T165" s="12"/>
-      <c r="U165" s="13"/>
-      <c r="V165" s="2"/>
-      <c r="W165" s="14"/>
+      <c r="W165" s="12"/>
     </row>
     <row r="166" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F166" s="11"/>
-      <c r="G166" s="11"/>
-      <c r="H166" s="11"/>
-      <c r="I166" s="11"/>
-      <c r="J166" s="12"/>
-      <c r="K166" s="12"/>
-      <c r="L166" s="12"/>
-      <c r="M166" s="12"/>
-      <c r="N166" s="12"/>
-      <c r="O166" s="12"/>
-      <c r="P166" s="12"/>
-      <c r="Q166" s="12"/>
-      <c r="R166" s="12"/>
-      <c r="S166" s="12"/>
-      <c r="T166" s="12"/>
-      <c r="U166" s="13"/>
-      <c r="V166" s="2"/>
-      <c r="W166" s="14"/>
+      <c r="W166" s="12"/>
     </row>
     <row r="167" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F167" s="11"/>
-      <c r="G167" s="11"/>
-      <c r="H167" s="11"/>
-      <c r="I167" s="11"/>
-      <c r="J167" s="12"/>
-      <c r="K167" s="12"/>
-      <c r="L167" s="12"/>
-      <c r="M167" s="12"/>
-      <c r="N167" s="12"/>
-      <c r="O167" s="12"/>
-      <c r="P167" s="12"/>
-      <c r="Q167" s="12"/>
-      <c r="R167" s="12"/>
-      <c r="S167" s="12"/>
-      <c r="T167" s="12"/>
-      <c r="U167" s="13"/>
-      <c r="V167" s="2"/>
-      <c r="W167" s="14"/>
+      <c r="W167" s="12"/>
     </row>
     <row r="168" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W168" s="12"/>
@@ -8130,20 +8058,11 @@
     <row r="581" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="W581" s="12"/>
     </row>
-    <row r="582" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="W582" s="12"/>
-    </row>
-    <row r="583" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="W583" s="12"/>
-    </row>
-    <row r="584" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="W584" s="12"/>
-    </row>
+    <row r="582" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="583" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="584" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="585" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="586" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="587" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="588" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="589" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048411" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048412" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048413" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -8321,8 +8240,8 @@
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="A6:B6"/>
   </mergeCells>
-  <dataValidations count="4">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J10:J20 M10:N20 P10:R20" type="list">
+  <dataValidations count="3">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J10:J26 M10:N26 P10:R26" type="list">
       <formula1>Sheet1!$B$2:$B$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -8332,10 +8251,6 @@
     </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="T10:T26" type="list">
       <formula1>Sheet1!$A$2:$A$3</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J21:J26 M21:N26 P21:R26" type="list">
-      <formula1>Sheet1!$B$2:$B$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -8358,11 +8273,11 @@
   </sheetPr>
   <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I15" activeCellId="0" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -8371,7 +8286,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8422,13 +8337,13 @@
   </sheetPr>
   <dimension ref="A1:G960"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="106" zoomScaleNormal="106" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.59765625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.47265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.81"/>
@@ -8452,158 +8367,158 @@
       <c r="D1" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="46" t="s">
         <v>166</v>
       </c>
-      <c r="G1" s="42" t="s">
+      <c r="G1" s="47" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="48" t="s">
         <v>168</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="49" t="s">
         <v>169</v>
       </c>
-      <c r="D2" s="45" t="s">
+      <c r="D2" s="50" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="48" t="s">
         <v>171</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="48" t="s">
         <v>168</v>
       </c>
-      <c r="C3" s="44" t="s">
+      <c r="C3" s="49" t="s">
         <v>172</v>
       </c>
-      <c r="D3" s="45" t="s">
+      <c r="D3" s="50" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="48" t="s">
         <v>174</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="48" t="s">
         <v>168</v>
       </c>
-      <c r="C4" s="44" t="s">
+      <c r="C4" s="49" t="s">
         <v>175</v>
       </c>
-      <c r="D4" s="46" t="s">
+      <c r="D4" s="51" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="48" t="s">
         <v>177</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="48" t="s">
         <v>168</v>
       </c>
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="49" t="s">
         <v>178</v>
       </c>
-      <c r="D5" s="45" t="s">
+      <c r="D5" s="50" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="48" t="s">
         <v>180</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="48" t="s">
         <v>168</v>
       </c>
-      <c r="C6" s="44" t="s">
+      <c r="C6" s="49" t="s">
         <v>181</v>
       </c>
-      <c r="D6" s="46" t="s">
+      <c r="D6" s="51" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="48" t="s">
         <v>183</v>
       </c>
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="48" t="s">
         <v>168</v>
       </c>
-      <c r="C7" s="44" t="s">
+      <c r="C7" s="49" t="s">
         <v>184</v>
       </c>
-      <c r="D7" s="46" t="s">
+      <c r="D7" s="51" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="48" t="s">
         <v>186</v>
       </c>
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="48" t="s">
         <v>168</v>
       </c>
-      <c r="C8" s="44" t="s">
+      <c r="C8" s="49" t="s">
         <v>187</v>
       </c>
-      <c r="D8" s="46" t="s">
+      <c r="D8" s="51" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="48" t="s">
         <v>189</v>
       </c>
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="48" t="s">
         <v>168</v>
       </c>
-      <c r="C9" s="44" t="s">
+      <c r="C9" s="49" t="s">
         <v>190</v>
       </c>
-      <c r="D9" s="46" t="s">
+      <c r="D9" s="51" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="48" t="s">
         <v>192</v>
       </c>
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="48" t="s">
         <v>168</v>
       </c>
-      <c r="C10" s="47" t="s">
+      <c r="C10" s="52" t="s">
         <v>193</v>
       </c>
-      <c r="D10" s="45" t="s">
+      <c r="D10" s="50" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="43" t="s">
+      <c r="A11" s="48" t="s">
         <v>195</v>
       </c>
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="48" t="s">
         <v>168</v>
       </c>
-      <c r="C11" s="44" t="s">
+      <c r="C11" s="49" t="s">
         <v>196</v>
       </c>
-      <c r="D11" s="46" t="s">
+      <c r="D11" s="51" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D12" s="48"/>
+      <c r="D12" s="53"/>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D13" s="48"/>
+      <c r="D13" s="53"/>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -9570,13 +9485,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B1000"/>
+  <dimension ref="A1:B221"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.59765625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.47265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.17"/>
@@ -9584,32 +9499,32 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="54" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="49" t="s">
-        <v>64</v>
-      </c>
-      <c r="B2" s="49" t="s">
+      <c r="A2" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="54" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="54" t="s">
         <v>198</v>
       </c>
-      <c r="B3" s="49" t="s">
-        <v>62</v>
+      <c r="B3" s="54" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="49"/>
-      <c r="B4" s="49"/>
+      <c r="A4" s="54"/>
+      <c r="B4" s="54"/>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
